--- a/linkedin-analytics/tests/fixtures/sample_export.xlsx
+++ b/linkedin-analytics/tests/fixtures/sample_export.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,408 +428,33 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Overall Performance</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Impressions</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Members Reached</t>
+          <t>11/1/2025 - 11/30/2025</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>Impressions</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C2" t="n">
-        <v>140</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>Members reached</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250</v>
-      </c>
-      <c r="C3" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-11-03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>350</v>
-      </c>
-      <c r="C5" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>400</v>
-      </c>
-      <c r="C6" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>450</v>
-      </c>
-      <c r="C7" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-11-07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-11-08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>200</v>
-      </c>
-      <c r="C9" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-11-09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>250</v>
-      </c>
-      <c r="C10" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>300</v>
-      </c>
-      <c r="C11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>350</v>
-      </c>
-      <c r="C12" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C13" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>450</v>
-      </c>
-      <c r="C14" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>500</v>
-      </c>
-      <c r="C15" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>200</v>
-      </c>
-      <c r="C16" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>250</v>
-      </c>
-      <c r="C17" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>300</v>
-      </c>
-      <c r="C18" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>350</v>
-      </c>
-      <c r="C19" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>450</v>
-      </c>
-      <c r="C21" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>500</v>
-      </c>
-      <c r="C22" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-11-22</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>200</v>
-      </c>
-      <c r="C23" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-11-23</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>250</v>
-      </c>
-      <c r="C24" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>300</v>
-      </c>
-      <c r="C25" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>350</v>
-      </c>
-      <c r="C26" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>400</v>
-      </c>
-      <c r="C27" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>450</v>
-      </c>
-      <c r="C28" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>500</v>
-      </c>
-      <c r="C29" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-11-29</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>200</v>
-      </c>
-      <c r="C30" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-11-30</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>250</v>
-      </c>
-      <c r="C31" t="n">
-        <v>175</v>
+        <v>9200</v>
       </c>
     </row>
   </sheetData>
@@ -838,418 +463,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Post Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Post Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Post Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Impressions</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Members Reached</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Reactions</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Shares</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Clicks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>The commitment-without-execution loop in enterprise security</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3200</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>180</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-11-08</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Quantify or kill: how to make risk legible to executives</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2800</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>155</v>
-      </c>
-      <c r="G3" t="n">
-        <v>28</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>I built an AI red team that argues with itself</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F4" t="n">
-        <v>210</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-11-22</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>From HackTheBox to the boardroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3800</v>
-      </c>
-      <c r="F5" t="n">
-        <v>280</v>
-      </c>
-      <c r="G5" t="n">
-        <v>62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-11-29</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Why vulnerability management is a data problem</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2200</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1600</v>
-      </c>
-      <c r="F6" t="n">
-        <v>120</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Post Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Post Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Post Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Impressions</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Members Reached</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Reactions</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Shares</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Clicks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>The commitment-without-execution loop in enterprise security</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3200</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>180</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-11-08</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Quantify or kill: how to make risk legible to executives</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2800</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>155</v>
-      </c>
-      <c r="G3" t="n">
-        <v>28</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>I built an AI red team that argues with itself</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F4" t="n">
-        <v>210</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,402 +484,943 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Total Followers</t>
+          <t>Impressions</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>New Followers</t>
+          <t>Engagements</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>11/01/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>11/02/2025</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>11/04/2025</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>11/05/2025</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>11/08/2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>11/09/2025</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475</v>
+        <v>250</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>481</v>
+        <v>350</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>11/13/2025</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>11/14/2025</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>11/15/2025</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-16</t>
+          <t>11/16/2025</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>496</v>
+        <v>250</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>498</v>
+        <v>300</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>11/21/2025</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>11/22/2025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>513</v>
+        <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-11-23</t>
+          <t>11/23/2025</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>11/24/2025</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>11/25/2025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>11/26/2025</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>11/29/2025</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>535</v>
+        <v>200</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>11/30/2025</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="C31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Maximum of 50 posts available to include in this list</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post URL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Post publish date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Post URL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Post publish date</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Impressions</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11/22/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>280</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000004</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11/22/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11/15/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>210</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000003</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11/15/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000001</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>155</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000002</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000005</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11/29/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>120</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7400000000000000005</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11/29/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Total followers on 11/30/2025:</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>New followers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11/13/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11/14/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11/15/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>11/16/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/17/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11/18/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11/19/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>11/20/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>11/21/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>11/22/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>11/23/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11/24/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>11/25/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>11/27/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>11/28/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>11/29/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/30/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1692,7 +1446,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Top Demographics</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1709,7 +1463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industries</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1718,13 +1472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industries</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1733,13 +1487,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.2</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industries</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1748,13 +1502,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industries</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1763,13 +1517,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industries</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1778,13 +1532,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26.8</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>job_title</t>
+          <t>Job titles</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1793,13 +1547,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>job_title</t>
+          <t>Job titles</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,13 +1562,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.5</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>job_title</t>
+          <t>Job titles</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1823,13 +1577,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>job_title</t>
+          <t>Job titles</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1838,13 +1592,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>job_title</t>
+          <t>Job titles</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1853,13 +1607,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.5</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>seniority</t>
+          <t>Seniority</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1868,13 +1622,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>seniority</t>
+          <t>Seniority</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1883,13 +1637,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>seniority</t>
+          <t>Seniority</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1898,13 +1652,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>seniority</t>
+          <t>Seniority</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1913,13 +1667,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>seniority</t>
+          <t>Seniority</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1928,13 +1682,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Locations</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1943,13 +1697,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Locations</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1958,13 +1712,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Locations</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1973,13 +1727,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.5</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Locations</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1988,13 +1742,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Locations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2003,7 +1757,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.5</v>
+        <v>0.155</v>
       </c>
     </row>
   </sheetData>
